--- a/DSP_H2_2025/Tháng 9/NewEleven_20251001_20251001_DSP Product.xlsx
+++ b/DSP_H2_2025/Tháng 9/NewEleven_20251001_20251001_DSP Product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>Creative Asset</t>
   </si>
@@ -254,10 +254,10 @@
     <t>B08ZYGT8SH-Men,Dads-Apron</t>
   </si>
   <si>
-    <t>B0F1FWGNH8-Dads-Tumbler</t>
+    <t>B0F17MLPQ4-Dads,Grandpa-Tumbler</t>
   </si>
   <si>
-    <t>B0F17MLPQ4-Dads,Grandpa-Tumbler</t>
+    <t>B0F1FWGNH8-Dads-Tumbler</t>
   </si>
   <si>
     <t>B08CDFWN1Q-Dads,Men-Apron</t>
@@ -302,13 +302,13 @@
     <t>B0D1GH6WJ6-Birthday-Tumblers</t>
   </si>
   <si>
+    <t>B08R8SW1NM-Birthday-Tumblers</t>
+  </si>
+  <si>
     <t>B09YCTFXYV-Retirement-tumblers</t>
   </si>
   <si>
     <t>B0978WGWY4-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B08R8SW1NM-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0CXXJ751C-Retirement-cfglass</t>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>B0DJYD117Z-Birthday Ornaments</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
   <si>
     <t>Total</t>
@@ -2679,6 +2682,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2972,10 +3005,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL75"/>
+  <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:AL75"/>
+      <selection activeCell="A1" sqref="A1:AL76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3391,7 +3424,7 @@
         <v>0.0014</v>
       </c>
       <c r="J4" s="8">
-        <v>0.0028</v>
+        <v>0.0027</v>
       </c>
       <c r="K4" s="8">
         <v>0.0002</v>
@@ -3412,7 +3445,7 @@
         <v>36</v>
       </c>
       <c r="Q4" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R4" s="9">
         <v>6</v>
@@ -3430,7 +3463,7 @@
         <v>0.23</v>
       </c>
       <c r="W4" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" s="8">
         <v>0.0018</v>
@@ -3520,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="P5" s="9">
         <v>9</v>
@@ -4876,7 +4909,7 @@
         <v>0.0163</v>
       </c>
       <c r="K17" s="8">
-        <v>0.0033</v>
+        <v>0.0049</v>
       </c>
       <c r="L17" s="7">
         <v>2.64</v>
@@ -4897,7 +4930,7 @@
         <v>20</v>
       </c>
       <c r="R17" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S17" s="9">
         <v>1</v>
@@ -4921,16 +4954,16 @@
         <v>0.13</v>
       </c>
       <c r="Z17" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="8">
-        <v>0.0024</v>
+        <v>0.0041</v>
       </c>
       <c r="AB17" s="7">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="AC17" s="7">
-        <v>0.88</v>
+        <v>0.53</v>
       </c>
       <c r="AD17" s="7">
         <v>19.98</v>
@@ -6598,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="P32" s="9">
         <v>5</v>
@@ -7282,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="9">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="P38" s="9">
         <v>4</v>
@@ -7822,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="7">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="F43" s="7">
-        <v>0.24</v>
+        <v>0.47</v>
       </c>
       <c r="G43" s="6">
         <v>0</v>
@@ -7834,10 +7867,10 @@
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <v>0.0368</v>
+        <v>0.0304</v>
       </c>
       <c r="J43" s="8">
-        <v>0.0053</v>
+        <v>0.0028</v>
       </c>
       <c r="K43" s="8">
         <v>0</v>
@@ -7852,13 +7885,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="9">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="P43" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q43" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43" s="9">
         <v>0</v>
@@ -7873,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="V43" s="7">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="W43" s="9">
         <v>1</v>
       </c>
       <c r="X43" s="8">
-        <v>0.0026</v>
+        <v>0.0028</v>
       </c>
       <c r="Y43" s="7">
         <v>0.47</v>
@@ -7936,10 +7969,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="7">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="F44" s="7">
-        <v>0.47</v>
+        <v>0.24</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -7948,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="8">
-        <v>0.0304</v>
+        <v>0.0368</v>
       </c>
       <c r="J44" s="8">
-        <v>0.0028</v>
+        <v>0.0053</v>
       </c>
       <c r="K44" s="8">
         <v>0</v>
@@ -7966,13 +7999,13 @@
         <v>0</v>
       </c>
       <c r="O44" s="9">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="P44" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q44" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" s="9">
         <v>0</v>
@@ -7987,13 +8020,13 @@
         <v>0</v>
       </c>
       <c r="V44" s="7">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="W44" s="9">
         <v>1</v>
       </c>
       <c r="X44" s="8">
-        <v>0.0028</v>
+        <v>0.0026</v>
       </c>
       <c r="Y44" s="7">
         <v>0.47</v>
@@ -9646,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="7">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="F59" s="7">
         <v>0</v>
@@ -9676,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P59" s="9">
         <v>0</v>
@@ -9760,10 +9793,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="7">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="F60" s="7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G60" s="6">
         <v>0</v>
@@ -9775,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="8">
-        <v>0.0889</v>
+        <v>0</v>
       </c>
       <c r="K60" s="8">
         <v>0</v>
@@ -9790,13 +9823,13 @@
         <v>0</v>
       </c>
       <c r="O60" s="9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P60" s="9">
         <v>0</v>
       </c>
       <c r="Q60" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R60" s="9">
         <v>0</v>
@@ -9814,13 +9847,13 @@
         <v>0</v>
       </c>
       <c r="W60" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="8">
-        <v>0.0222</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="7">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="9">
         <v>0</v>
@@ -9874,10 +9907,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="7">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="F61" s="7">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G61" s="6">
         <v>0</v>
@@ -9889,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="8">
-        <v>0</v>
+        <v>0.0889</v>
       </c>
       <c r="K61" s="8">
         <v>0</v>
@@ -9904,13 +9937,13 @@
         <v>0</v>
       </c>
       <c r="O61" s="9">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P61" s="9">
         <v>0</v>
       </c>
       <c r="Q61" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R61" s="9">
         <v>0</v>
@@ -9928,13 +9961,13 @@
         <v>0</v>
       </c>
       <c r="W61" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X61" s="8">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="Y61" s="7">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Z61" s="9">
         <v>0</v>
@@ -11464,112 +11497,226 @@
         <v>111</v>
       </c>
       <c r="C75" s="7">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7">
+        <v>30.82</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+      <c r="H75" s="8">
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
+        <v>0</v>
+      </c>
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="6">
+        <v>0</v>
+      </c>
+      <c r="N75" s="8">
+        <v>0</v>
+      </c>
+      <c r="O75" s="9">
+        <v>0</v>
+      </c>
+      <c r="P75" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>21</v>
+      </c>
+      <c r="R75" s="9">
+        <v>0</v>
+      </c>
+      <c r="S75" s="9">
+        <v>3</v>
+      </c>
+      <c r="T75" s="9">
+        <v>5</v>
+      </c>
+      <c r="U75" s="9">
+        <v>0</v>
+      </c>
+      <c r="V75" s="7">
+        <v>0</v>
+      </c>
+      <c r="W75" s="9">
+        <v>15</v>
+      </c>
+      <c r="X75" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="7">
+        <v>6.71</v>
+      </c>
+      <c r="AE75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ75" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" customHeight="1" ht="90">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="7">
         <v>141.8</v>
       </c>
-      <c r="D75" s="7">
-        <v>482.49</v>
-      </c>
-      <c r="E75" s="7">
+      <c r="D76" s="7">
+        <v>513.31</v>
+      </c>
+      <c r="E76" s="7">
         <v>0.77</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="7">
         <v>0.15</v>
       </c>
-      <c r="G75" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="H75" s="8">
-        <v>0.9655</v>
-      </c>
-      <c r="I75" s="8">
+      <c r="G76" s="6">
+        <v>3.62</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="I76" s="8">
         <v>0.0037</v>
       </c>
-      <c r="J75" s="8">
-        <v>0.0051</v>
-      </c>
-      <c r="K75" s="8">
+      <c r="J76" s="8">
+        <v>0.0052</v>
+      </c>
+      <c r="K76" s="8">
         <v>0.0006</v>
       </c>
-      <c r="L75" s="7">
-        <v>4.89</v>
-      </c>
-      <c r="M75" s="6">
-        <v>2.46</v>
-      </c>
-      <c r="N75" s="8">
-        <v>0</v>
-      </c>
-      <c r="O75" s="9">
-        <v>183618</v>
-      </c>
-      <c r="P75" s="9">
+      <c r="L76" s="7">
+        <v>4.43</v>
+      </c>
+      <c r="M76" s="6">
+        <v>2.51</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0</v>
+      </c>
+      <c r="O76" s="9">
+        <v>183614</v>
+      </c>
+      <c r="P76" s="9">
         <v>684</v>
       </c>
-      <c r="Q75" s="9">
-        <v>941</v>
-      </c>
-      <c r="R75" s="9">
-        <v>106</v>
-      </c>
-      <c r="S75" s="9">
-        <v>29</v>
-      </c>
-      <c r="T75" s="9">
+      <c r="Q76" s="9">
+        <v>961</v>
+      </c>
+      <c r="R76" s="9">
+        <v>108</v>
+      </c>
+      <c r="S76" s="9">
         <v>32</v>
       </c>
-      <c r="U75" s="9">
+      <c r="T76" s="9">
+        <v>37</v>
+      </c>
+      <c r="U76" s="9">
         <v>6</v>
       </c>
-      <c r="V75" s="7">
+      <c r="V76" s="7">
         <v>0.21</v>
       </c>
-      <c r="W75" s="9">
-        <v>671</v>
-      </c>
-      <c r="X75" s="8">
+      <c r="W76" s="9">
+        <v>685</v>
+      </c>
+      <c r="X76" s="8">
         <v>0.0037</v>
       </c>
-      <c r="Y75" s="7">
+      <c r="Y76" s="7">
         <v>0.21</v>
       </c>
-      <c r="Z75" s="9">
-        <v>83</v>
-      </c>
-      <c r="AA75" s="8">
+      <c r="Z76" s="9">
+        <v>85</v>
+      </c>
+      <c r="AA76" s="8">
         <v>0.0005</v>
       </c>
-      <c r="AB75" s="7">
-        <v>1.34</v>
-      </c>
-      <c r="AC75" s="7">
-        <v>1.71</v>
-      </c>
-      <c r="AD75" s="7">
-        <v>348.64</v>
-      </c>
-      <c r="AE75" s="7">
+      <c r="AB76" s="7">
+        <v>1.31</v>
+      </c>
+      <c r="AC76" s="7">
+        <v>1.67</v>
+      </c>
+      <c r="AD76" s="7">
+        <v>355.35</v>
+      </c>
+      <c r="AE76" s="7">
         <v>467.5</v>
       </c>
-      <c r="AF75" s="7">
+      <c r="AF76" s="7">
         <v>333.65</v>
       </c>
-      <c r="AG75" s="6">
+      <c r="AG76" s="6">
         <v>3.3</v>
       </c>
-      <c r="AH75" s="6">
+      <c r="AH76" s="6">
         <v>2.35</v>
       </c>
-      <c r="AI75" s="9">
-        <v>21</v>
-      </c>
-      <c r="AJ75" s="8">
+      <c r="AI76" s="9">
+        <v>22</v>
+      </c>
+      <c r="AJ76" s="8">
         <v>0.0002</v>
       </c>
-      <c r="AK75" s="8">
+      <c r="AK76" s="8">
         <v>0.0001</v>
       </c>
-      <c r="AL75" s="7">
-        <v>6.75</v>
+      <c r="AL76" s="7">
+        <v>6.45</v>
       </c>
     </row>
   </sheetData>
